--- a/linreg/rifreg2_coefs_1.xlsx
+++ b/linreg/rifreg2_coefs_1.xlsx
@@ -261,13 +261,13 @@
         <v>-0.30661329464550713</v>
       </c>
       <c r="C2">
-        <v>0.010505935088497247</v>
+        <v>0.0096522889319272179</v>
       </c>
       <c r="D2">
-        <v>-0.32720462882539864</v>
+        <v>-0.32553150662035485</v>
       </c>
       <c r="E2">
-        <v>-0.28602196046561562</v>
+        <v>-0.28769508267065941</v>
       </c>
     </row>
     <row r="3">
@@ -278,13 +278,13 @@
         <v>0.15625914087763274</v>
       </c>
       <c r="C3">
-        <v>0.0033937768930223586</v>
+        <v>0.0029091036130235001</v>
       </c>
       <c r="D3">
-        <v>0.14960743462325751</v>
+        <v>0.15055738047695383</v>
       </c>
       <c r="E3">
-        <v>0.16291084713200796</v>
+        <v>0.16196090127831164</v>
       </c>
     </row>
     <row r="4">
@@ -295,13 +295,13 @@
         <v>0.29836241299445487</v>
       </c>
       <c r="C4">
-        <v>0.012283790531818198</v>
+        <v>0.011865318626738435</v>
       </c>
       <c r="D4">
-        <v>0.27428653267482533</v>
+        <v>0.27510672571521716</v>
       </c>
       <c r="E4">
-        <v>0.32243829331408441</v>
+        <v>0.32161810027369259</v>
       </c>
     </row>
     <row r="5">
@@ -312,13 +312,13 @@
         <v>-0.049379343246312525</v>
       </c>
       <c r="C5">
-        <v>0.0037874982663077825</v>
+        <v>0.0041453603647392447</v>
       </c>
       <c r="D5">
-        <v>-0.056802734768162749</v>
+        <v>-0.057504134552584928</v>
       </c>
       <c r="E5">
-        <v>-0.041955951724462301</v>
+        <v>-0.041254551940040123</v>
       </c>
     </row>
     <row r="6">
@@ -329,13 +329,13 @@
         <v>0.060096865485025741</v>
       </c>
       <c r="C6">
-        <v>0.0019616225753781948</v>
+        <v>0.001957499364843861</v>
       </c>
       <c r="D6">
-        <v>0.056252139660417491</v>
+        <v>0.056260221038670698</v>
       </c>
       <c r="E6">
-        <v>0.063941591309633991</v>
+        <v>0.063933509931380791</v>
       </c>
     </row>
     <row r="7">
@@ -346,13 +346,13 @@
         <v>0.049453080976122818</v>
       </c>
       <c r="C7">
-        <v>0.004716526086845859</v>
+        <v>0.005136820117669855</v>
       </c>
       <c r="D7">
-        <v>0.04020882070090722</v>
+        <v>0.039385056061103277</v>
       </c>
       <c r="E7">
-        <v>0.058697341251338415</v>
+        <v>0.059521105891142359</v>
       </c>
     </row>
     <row r="8">
@@ -363,13 +363,13 @@
         <v>-0.32419447796276979</v>
       </c>
       <c r="C8">
-        <v>0.0079831329007907254</v>
+        <v>0.008544828282437994</v>
       </c>
       <c r="D8">
-        <v>-0.33984119155636977</v>
+        <v>-0.34094209854021967</v>
       </c>
       <c r="E8">
-        <v>-0.30854776436916981</v>
+        <v>-0.3074468573853199</v>
       </c>
     </row>
     <row r="9">
@@ -380,13 +380,13 @@
         <v>0.28044511311468084</v>
       </c>
       <c r="C9">
-        <v>0.0032746272200524255</v>
+        <v>0.0054383528928735264</v>
       </c>
       <c r="D9">
-        <v>0.27402693683292412</v>
+        <v>0.26978609601034459</v>
       </c>
       <c r="E9">
-        <v>0.28686328939643757</v>
+        <v>0.2911041302190171</v>
       </c>
     </row>
     <row r="10">
@@ -397,13 +397,13 @@
         <v>0.24875307286999154</v>
       </c>
       <c r="C10">
-        <v>0.010650451097697952</v>
+        <v>0.010867165675226918</v>
       </c>
       <c r="D10">
-        <v>0.22787849141941641</v>
+        <v>0.22745373700679503</v>
       </c>
       <c r="E10">
-        <v>0.26962765432056668</v>
+        <v>0.27005240873318803</v>
       </c>
     </row>
     <row r="11">
@@ -414,13 +414,13 @@
         <v>-0.11924239964195342</v>
       </c>
       <c r="C11">
-        <v>0.0049068476013524095</v>
+        <v>0.0052338094410633142</v>
       </c>
       <c r="D11">
-        <v>-0.12885968480533377</v>
+        <v>-0.12950052093995848</v>
       </c>
       <c r="E11">
-        <v>-0.10962511447857308</v>
+        <v>-0.10898427834394836</v>
       </c>
     </row>
     <row r="12">
@@ -431,13 +431,13 @@
         <v>0.14442717178150236</v>
       </c>
       <c r="C12">
-        <v>0.0030874097859272301</v>
+        <v>0.0033019628757557876</v>
       </c>
       <c r="D12">
-        <v>0.13837593425798736</v>
+        <v>0.13795541615447079</v>
       </c>
       <c r="E12">
-        <v>0.15047840930501735</v>
+        <v>0.15089892740853392</v>
       </c>
     </row>
     <row r="13">
@@ -448,13 +448,13 @@
         <v>0.083051246488529532</v>
       </c>
       <c r="C13">
-        <v>0.007140959700653547</v>
+        <v>0.0075182270282111961</v>
       </c>
       <c r="D13">
-        <v>0.069055163593584143</v>
+        <v>0.068315730098452099</v>
       </c>
       <c r="E13">
-        <v>0.09704732938347492</v>
+        <v>0.097786762878606964</v>
       </c>
     </row>
     <row r="14">
@@ -465,13 +465,13 @@
         <v>-0.28059774434035911</v>
       </c>
       <c r="C14">
-        <v>0.0065484844347165269</v>
+        <v>0.0064734294450451814</v>
       </c>
       <c r="D14">
-        <v>-0.29343258771519609</v>
+        <v>-0.29328548206860938</v>
       </c>
       <c r="E14">
-        <v>-0.26776290096552213</v>
+        <v>-0.26791000661210884</v>
       </c>
     </row>
     <row r="15">
@@ -482,13 +482,13 @@
         <v>0.35687261778427093</v>
       </c>
       <c r="C15">
-        <v>0.0033490403147680165</v>
+        <v>0.0041958268841884531</v>
       </c>
       <c r="D15">
-        <v>0.35030859395179725</v>
+        <v>0.34864891634260747</v>
       </c>
       <c r="E15">
-        <v>0.3634366416167446</v>
+        <v>0.36509631922593438</v>
       </c>
     </row>
     <row r="16">
@@ -499,13 +499,13 @@
         <v>0.14580131892659895</v>
       </c>
       <c r="C16">
-        <v>0.010014368949190344</v>
+        <v>0.0098858236024648456</v>
       </c>
       <c r="D16">
-        <v>0.12617344040874268</v>
+        <v>0.12642538563488373</v>
       </c>
       <c r="E16">
-        <v>0.16542919744445522</v>
+        <v>0.16517725221831417</v>
       </c>
     </row>
     <row r="17">
@@ -516,13 +516,13 @@
         <v>-0.11267829682738358</v>
       </c>
       <c r="C17">
-        <v>0.0040600494987299927</v>
+        <v>0.0044314336232968718</v>
       </c>
       <c r="D17">
-        <v>-0.12063588120313713</v>
+        <v>-0.12136378378363048</v>
       </c>
       <c r="E17">
-        <v>-0.10472071245163002</v>
+        <v>-0.10399280987113667</v>
       </c>
     </row>
     <row r="18">
@@ -533,13 +533,13 @@
         <v>0.17777955958715458</v>
       </c>
       <c r="C18">
-        <v>0.0029979960654900146</v>
+        <v>0.002884858250504638</v>
       </c>
       <c r="D18">
-        <v>0.1719035704750079</v>
+        <v>0.17212531745349086</v>
       </c>
       <c r="E18">
-        <v>0.18365554869930126</v>
+        <v>0.1834338017208183</v>
       </c>
     </row>
     <row r="19">
@@ -550,13 +550,13 @@
         <v>0.065149705329164379</v>
       </c>
       <c r="C19">
-        <v>0.0066144331782696979</v>
+        <v>0.0066634238438001286</v>
       </c>
       <c r="D19">
-        <v>0.052185599810172706</v>
+        <v>0.052089579464926997</v>
       </c>
       <c r="E19">
-        <v>0.078113810848156051</v>
+        <v>0.07820983119340176</v>
       </c>
     </row>
     <row r="20">
@@ -567,13 +567,13 @@
         <v>-0.21457207248648424</v>
       </c>
       <c r="C20">
-        <v>0.0053310269201899078</v>
+        <v>0.0055594996467473717</v>
       </c>
       <c r="D20">
-        <v>-0.22502073373471684</v>
+        <v>-0.22546853378525081</v>
       </c>
       <c r="E20">
-        <v>-0.20412341123825165</v>
+        <v>-0.20367561118771768</v>
       </c>
     </row>
     <row r="21">
@@ -584,13 +584,13 @@
         <v>0.36608135364405586</v>
       </c>
       <c r="C21">
-        <v>0.003303781680757711</v>
+        <v>0.0037179180867323038</v>
       </c>
       <c r="D21">
-        <v>0.35960603544792785</v>
+        <v>0.35879433986256121</v>
       </c>
       <c r="E21">
-        <v>0.37255667184018387</v>
+        <v>0.37336836742555052</v>
       </c>
     </row>
     <row r="22">
@@ -601,13 +601,13 @@
         <v>0.044597156598815149</v>
       </c>
       <c r="C22">
-        <v>0.0092789969221267633</v>
+        <v>0.009669093061444969</v>
       </c>
       <c r="D22">
-        <v>0.026410586353688398</v>
+        <v>0.025646009007709795</v>
       </c>
       <c r="E22">
-        <v>0.062783726843941901</v>
+        <v>0.063548304189920496</v>
       </c>
     </row>
     <row r="23">
@@ -618,13 +618,13 @@
         <v>-0.11078170197703463</v>
       </c>
       <c r="C23">
-        <v>0.0041369951998519328</v>
+        <v>0.0039825747662933951</v>
       </c>
       <c r="D23">
-        <v>-0.11889009779221051</v>
+        <v>-0.11858743802666655</v>
       </c>
       <c r="E23">
-        <v>-0.10267330616185875</v>
+        <v>-0.10297596592740271</v>
       </c>
     </row>
     <row r="24">
@@ -635,13 +635,13 @@
         <v>0.22597197994387933</v>
       </c>
       <c r="C24">
-        <v>0.0034033468794901398</v>
+        <v>0.0038922727760216129</v>
       </c>
       <c r="D24">
-        <v>0.21930151448231983</v>
+        <v>0.21834323328984739</v>
       </c>
       <c r="E24">
-        <v>0.23264244540543882</v>
+        <v>0.23360072659791126</v>
       </c>
     </row>
     <row r="25">
@@ -652,13 +652,13 @@
         <v>0.048270386245094943</v>
       </c>
       <c r="C25">
-        <v>0.0073361240543763414</v>
+        <v>0.0074026955164285379</v>
       </c>
       <c r="D25">
-        <v>0.033891786631480396</v>
+        <v>0.033761308412812538</v>
       </c>
       <c r="E25">
-        <v>0.062648985858709483</v>
+        <v>0.062779464077377348</v>
       </c>
     </row>
     <row r="26">
@@ -669,13 +669,13 @@
         <v>-0.15225484902913614</v>
       </c>
       <c r="C26">
-        <v>0.0043152016263928753</v>
+        <v>0.0040629196301676506</v>
       </c>
       <c r="D26">
-        <v>-0.16071252157272092</v>
+        <v>-0.16021805603033132</v>
       </c>
       <c r="E26">
-        <v>-0.14379717648555135</v>
+        <v>-0.14429164202794095</v>
       </c>
     </row>
     <row r="27">
@@ -686,13 +686,13 @@
         <v>0.32145145753754445</v>
       </c>
       <c r="C27">
-        <v>0.0031576225658910208</v>
+        <v>0.0037406281749947073</v>
       </c>
       <c r="D27">
-        <v>0.31526260705250603</v>
+        <v>0.31411993262850835</v>
       </c>
       <c r="E27">
-        <v>0.32764030802258287</v>
+        <v>0.32878298244658055</v>
       </c>
     </row>
     <row r="28">
@@ -703,13 +703,13 @@
         <v>-0.03524302891490938</v>
       </c>
       <c r="C28">
-        <v>0.0084711696450970164</v>
+        <v>0.0080267148361303203</v>
       </c>
       <c r="D28">
-        <v>-0.051846280656653809</v>
+        <v>-0.050975161863114585</v>
       </c>
       <c r="E28">
-        <v>-0.018639777173164954</v>
+        <v>-0.019510895966704175</v>
       </c>
     </row>
     <row r="29">
@@ -720,13 +720,13 @@
         <v>-0.099535974072672423</v>
       </c>
       <c r="C29">
-        <v>0.0039218225245830846</v>
+        <v>0.0038117547411906849</v>
       </c>
       <c r="D29">
-        <v>-0.10722263741405849</v>
+        <v>-0.10700690761232302</v>
       </c>
       <c r="E29">
-        <v>-0.091849310731286354</v>
+        <v>-0.092065040533021822</v>
       </c>
     </row>
     <row r="30">
@@ -737,13 +737,13 @@
         <v>0.24772229571702892</v>
       </c>
       <c r="C30">
-        <v>0.0035805970419754227</v>
+        <v>0.0042022900365883773</v>
       </c>
       <c r="D30">
-        <v>0.2407044248546156</v>
+        <v>0.23948592383338543</v>
       </c>
       <c r="E30">
-        <v>0.25474016657944226</v>
+        <v>0.25595866760067237</v>
       </c>
     </row>
     <row r="31">
@@ -754,13 +754,13 @@
         <v>0.026238986201804954</v>
       </c>
       <c r="C31">
-        <v>0.0075763532559931929</v>
+        <v>0.0070928342305495969</v>
       </c>
       <c r="D31">
-        <v>0.011389544017925197</v>
+        <v>0.0123372278930733</v>
       </c>
       <c r="E31">
-        <v>0.04108842838568471</v>
+        <v>0.040140744510536605</v>
       </c>
     </row>
     <row r="32">
@@ -771,13 +771,13 @@
         <v>-0.1088873705395511</v>
       </c>
       <c r="C32">
-        <v>0.0037543469774697336</v>
+        <v>0.0037057912240009727</v>
       </c>
       <c r="D32">
-        <v>-0.11624578391153043</v>
+        <v>-0.11615061601475497</v>
       </c>
       <c r="E32">
-        <v>-0.10152895716757177</v>
+        <v>-0.10162412506434722</v>
       </c>
     </row>
     <row r="33">
@@ -788,13 +788,13 @@
         <v>0.26032293137827478</v>
       </c>
       <c r="C33">
-        <v>0.0031410508891162544</v>
+        <v>0.0037582253378713151</v>
       </c>
       <c r="D33">
-        <v>0.25416656090872436</v>
+        <v>0.25295691653013685</v>
       </c>
       <c r="E33">
-        <v>0.2664793018478252</v>
+        <v>0.26768894622641271</v>
       </c>
     </row>
     <row r="34">
@@ -805,13 +805,13 @@
         <v>-0.083985174740183369</v>
       </c>
       <c r="C34">
-        <v>0.0080149952245520319</v>
+        <v>0.0090413200497756214</v>
       </c>
       <c r="D34">
-        <v>-0.099694337582783094</v>
+        <v>-0.1017059050706154</v>
       </c>
       <c r="E34">
-        <v>-0.068276011897583644</v>
+        <v>-0.066264444409751336</v>
       </c>
     </row>
     <row r="35">
@@ -822,13 +822,13 @@
         <v>-0.086177083569623031</v>
       </c>
       <c r="C35">
-        <v>0.0038987965604331152</v>
+        <v>0.0038207979689629376</v>
       </c>
       <c r="D35">
-        <v>-0.093818616660106061</v>
+        <v>-0.093665741584812515</v>
       </c>
       <c r="E35">
-        <v>-0.078535550479140001</v>
+        <v>-0.078688425554433547</v>
       </c>
     </row>
     <row r="36">
@@ -839,13 +839,13 @@
         <v>0.25766491747090742</v>
       </c>
       <c r="C36">
-        <v>0.0039330002504789456</v>
+        <v>0.00452412215998939</v>
       </c>
       <c r="D36">
-        <v>0.24995634609687958</v>
+        <v>0.24879776355428809</v>
       </c>
       <c r="E36">
-        <v>0.26537348884493528</v>
+        <v>0.26653207138752677</v>
       </c>
     </row>
     <row r="37">
@@ -856,13 +856,13 @@
         <v>0.0018662753953442473</v>
       </c>
       <c r="C37">
-        <v>0.0081800898715119041</v>
+        <v>0.0085526401206023322</v>
       </c>
       <c r="D37">
-        <v>-0.014166473804921597</v>
+        <v>-0.014896661957128222</v>
       </c>
       <c r="E37">
-        <v>0.017899024595610092</v>
+        <v>0.018629212747816717</v>
       </c>
     </row>
     <row r="38">
@@ -873,13 +873,13 @@
         <v>-0.085070572325551444</v>
       </c>
       <c r="C38">
-        <v>0.003436594226812402</v>
+        <v>0.0033064515094659371</v>
       </c>
       <c r="D38">
-        <v>-0.091806199337225863</v>
+        <v>-0.091551123310067248</v>
       </c>
       <c r="E38">
-        <v>-0.078334945313877025</v>
+        <v>-0.07859002134103564</v>
       </c>
     </row>
     <row r="39">
@@ -890,13 +890,13 @@
         <v>0.17603397383965239</v>
       </c>
       <c r="C39">
-        <v>0.0031161565331118781</v>
+        <v>0.0056157210692007612</v>
       </c>
       <c r="D39">
-        <v>0.16992639560033765</v>
+        <v>0.16502732015076965</v>
       </c>
       <c r="E39">
-        <v>0.18214155207896712</v>
+        <v>0.18704062752853512</v>
       </c>
     </row>
     <row r="40">
@@ -907,13 +907,13 @@
         <v>-0.092202358131533366</v>
       </c>
       <c r="C40">
-        <v>0.0074224820238276805</v>
+        <v>0.0073658551506586289</v>
       </c>
       <c r="D40">
-        <v>-0.10675021194077818</v>
+        <v>-0.10663922487878282</v>
       </c>
       <c r="E40">
-        <v>-0.077654504322288556</v>
+        <v>-0.077765491384283916</v>
       </c>
     </row>
     <row r="41">
@@ -924,13 +924,13 @@
         <v>-0.077005740060919134</v>
       </c>
       <c r="C41">
-        <v>0.0041304950186616387</v>
+        <v>0.004859627110094928</v>
       </c>
       <c r="D41">
-        <v>-0.085101395701302651</v>
+        <v>-0.086530474371517146</v>
       </c>
       <c r="E41">
-        <v>-0.068910084420535617</v>
+        <v>-0.067481005750321121</v>
       </c>
     </row>
     <row r="42">
@@ -941,13 +941,13 @@
         <v>0.26182540752984235</v>
       </c>
       <c r="C42">
-        <v>0.0045952973772745449</v>
+        <v>0.0045116389640615017</v>
       </c>
       <c r="D42">
-        <v>0.25281875216202487</v>
+        <v>0.25298272033090868</v>
       </c>
       <c r="E42">
-        <v>0.27083206289765982</v>
+        <v>0.27066809472877601</v>
       </c>
     </row>
     <row r="43">
@@ -958,13 +958,13 @@
         <v>-0.024014025763942085</v>
       </c>
       <c r="C43">
-        <v>0.0094528271390414108</v>
+        <v>0.0090136393511639767</v>
       </c>
       <c r="D43">
-        <v>-0.042541304697823287</v>
+        <v>-0.041680508818381798</v>
       </c>
       <c r="E43">
-        <v>-0.0054867468300608853</v>
+        <v>-0.0063475427095023677</v>
       </c>
     </row>
     <row r="44">
@@ -975,13 +975,13 @@
         <v>-0.07101519645326175</v>
       </c>
       <c r="C44">
-        <v>0.0037133324333507431</v>
+        <v>0.003850470695556339</v>
       </c>
       <c r="D44">
-        <v>-0.078293222484459329</v>
+        <v>-0.078562009580718545</v>
       </c>
       <c r="E44">
-        <v>-0.063737170422064171</v>
+        <v>-0.063468383325804956</v>
       </c>
     </row>
     <row r="45">
@@ -992,13 +992,13 @@
         <v>0.0676695596465825</v>
       </c>
       <c r="C45">
-        <v>0.0034314735301682981</v>
+        <v>0.0040539359787561896</v>
       </c>
       <c r="D45">
-        <v>0.060943969054793073</v>
+        <v>0.059723960346825679</v>
       </c>
       <c r="E45">
-        <v>0.074395150238371927</v>
+        <v>0.075615158946339328</v>
       </c>
     </row>
     <row r="46">
@@ -1009,13 +1009,13 @@
         <v>-0.088209718380631755</v>
       </c>
       <c r="C46">
-        <v>0.0073467121123646836</v>
+        <v>0.0072851277209446466</v>
       </c>
       <c r="D46">
-        <v>-0.10260906531689734</v>
+        <v>-0.10248836166002975</v>
       </c>
       <c r="E46">
-        <v>-0.073810371444366168</v>
+        <v>-0.073931075101233756</v>
       </c>
     </row>
     <row r="47">
@@ -1026,13 +1026,13 @@
         <v>-0.053862325247749192</v>
       </c>
       <c r="C47">
-        <v>0.0038370571706431516</v>
+        <v>0.0039345779493968353</v>
       </c>
       <c r="D47">
-        <v>-0.061382850847137627</v>
+        <v>-0.06157398886788451</v>
       </c>
       <c r="E47">
-        <v>-0.046341799648360757</v>
+        <v>-0.046150661627613873</v>
       </c>
     </row>
     <row r="48">
@@ -1043,13 +1043,13 @@
         <v>0.2107392771534701</v>
       </c>
       <c r="C48">
-        <v>0.0047116599800332264</v>
+        <v>0.0049222113608480798</v>
       </c>
       <c r="D48">
-        <v>0.20150455431260231</v>
+        <v>0.20109187944772941</v>
       </c>
       <c r="E48">
-        <v>0.21997399999433789</v>
+        <v>0.22038667485921079</v>
       </c>
     </row>
     <row r="49">
@@ -1060,13 +1060,13 @@
         <v>-0.030599108048466699</v>
       </c>
       <c r="C49">
-        <v>0.0097661062369323072</v>
+        <v>0.010301668189589282</v>
       </c>
       <c r="D49">
-        <v>-0.049740405322618517</v>
+        <v>-0.050790091891229155</v>
       </c>
       <c r="E49">
-        <v>-0.011457810774314878</v>
+        <v>-0.010408124205704247</v>
       </c>
     </row>
     <row r="50">
@@ -1077,13 +1077,13 @@
         <v>-0.078732785948531642</v>
       </c>
       <c r="C50">
-        <v>0.0048936108889904711</v>
+        <v>0.0051317303865732189</v>
       </c>
       <c r="D50">
-        <v>-0.088324124207596805</v>
+        <v>-0.088790831655165436</v>
       </c>
       <c r="E50">
-        <v>-0.069141447689466479</v>
+        <v>-0.068674740241897847</v>
       </c>
     </row>
     <row r="51">
@@ -1094,13 +1094,13 @@
         <v>-0.049526158205894018</v>
       </c>
       <c r="C51">
-        <v>0.004246255121669343</v>
+        <v>0.0045351277903548657</v>
       </c>
       <c r="D51">
-        <v>-0.057848697559778048</v>
+        <v>-0.058414879780231063</v>
       </c>
       <c r="E51">
-        <v>-0.041203618852009988</v>
+        <v>-0.040637436631556972</v>
       </c>
     </row>
     <row r="52">
@@ -1111,13 +1111,13 @@
         <v>-0.019985792314375729</v>
       </c>
       <c r="C52">
-        <v>0.0082619502075127575</v>
+        <v>0.008182334415981523</v>
       </c>
       <c r="D52">
-        <v>-0.036178979904767906</v>
+        <v>-0.036022935216160304</v>
       </c>
       <c r="E52">
-        <v>-0.0037926047239835517</v>
+        <v>-0.0039486494125911542</v>
       </c>
     </row>
     <row r="53">
@@ -1128,13 +1128,13 @@
         <v>-0.050126994121296856</v>
       </c>
       <c r="C53">
-        <v>0.0043051938184054776</v>
+        <v>0.0044604729969443596</v>
       </c>
       <c r="D53">
-        <v>-0.058565054562345814</v>
+        <v>-0.058869397444226292</v>
       </c>
       <c r="E53">
-        <v>-0.041688933680247897</v>
+        <v>-0.04138459079836742</v>
       </c>
     </row>
     <row r="54">
@@ -1145,13 +1145,13 @@
         <v>0.10214159760952034</v>
       </c>
       <c r="C54">
-        <v>0.0055623231423851454</v>
+        <v>0.0060364711205798333</v>
       </c>
       <c r="D54">
-        <v>0.091239598571187908</v>
+        <v>0.090310281688657928</v>
       </c>
       <c r="E54">
-        <v>0.11304359664785277</v>
+        <v>0.11397291353038275</v>
       </c>
     </row>
     <row r="55">
@@ -1162,13 +1162,13 @@
         <v>-0.015578268418229657</v>
       </c>
       <c r="C55">
-        <v>0.011505265188469806</v>
+        <v>0.010925590611306902</v>
       </c>
       <c r="D55">
-        <v>-0.038128268986278711</v>
+        <v>-0.036992122897494324</v>
       </c>
       <c r="E55">
-        <v>0.0069717321498193995</v>
+        <v>0.0058355860610350124</v>
       </c>
     </row>
   </sheetData>
